--- a/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table1_coint.xlsx
+++ b/Proyecto Interno/working-papers/working-paper-aecm/output/ts-ecm/261225_table1_coint.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,125 +360,80 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>pair</t>
+          <t>city</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cali - Type 1</t>
+          <t>articulo_ipc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cali - Type 2</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Cali - Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Bogotá - Type 1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Bogotá - Type 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bogotá - Type 3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Medellín - Type 1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Medellín - Type 2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Medellín - Type 3</t>
+          <t>p_value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARROZ PARA SECO / Arroz de primera</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.03837605243672534</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
       </c>
       <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
-      </c>
-      <c r="J2">
         <v>0.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CEBOLLA CABEZONA / Cebolla cabezona blanca</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.01687549884436237</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CEBOLLA CABEZONA / Cebolla cabezona blanca bogotana</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -487,344 +442,318 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAPA / Papa R-12 negra</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <v>0.1</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.03837605243672534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAPA / Papa capira</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
       </c>
       <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0.01</v>
-      </c>
-      <c r="I6">
-        <v>0.1</v>
-      </c>
-      <c r="J6">
         <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAPA / Papa nevada</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>0.01</v>
-      </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAPA / Papa parda pastusa</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
       </c>
       <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8">
         <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PAPA / Papa suprema</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>0.0115619977373272</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
       </c>
       <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
         <v>0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAPA / Papa única</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>0.01158626441695261</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ARROZ PARA SECO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
       </c>
       <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0.1</v>
-      </c>
-      <c r="G10">
         <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLÁTANO / Plátano guineo</t>
-        </is>
-      </c>
-      <c r="E11">
-        <v>0.06864326541272343</v>
-      </c>
-      <c r="F11">
-        <v>0.1</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="I11">
-        <v>0.1</v>
-      </c>
-      <c r="J11">
-        <v>0.1</v>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PLÁTANO / Plátano hartón maduro</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-      <c r="I12">
-        <v>0.1</v>
-      </c>
-      <c r="J12">
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D12">
         <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLÁTANO / Plátano hartón verde</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
       </c>
       <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
         <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLÁTANO / Plátano hartón verde llanero</t>
-        </is>
-      </c>
-      <c r="E14">
-        <v>0.04525973685361138</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TOMATE / Tomate chonto</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="G15">
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D15">
         <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TOMATE / Tomate larga vida</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.01</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
       </c>
       <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
-      </c>
-      <c r="F16">
-        <v>0.1</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.01</v>
-      </c>
-      <c r="I16">
-        <v>0.1</v>
-      </c>
-      <c r="J16">
         <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YUCA / Yuca ICA</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.1</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
       </c>
       <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.03020415689372547</v>
-      </c>
-      <c r="I17">
-        <v>0.1</v>
-      </c>
-      <c r="J17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YUCA / Yuca llanera</t>
-        </is>
-      </c>
-      <c r="E18">
-        <v>0.1</v>
-      </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
-      <c r="G18">
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZANAHORIA / Zanahoria</t>
-        </is>
-      </c>
-      <c r="E19">
-        <v>0.01587934884150853</v>
-      </c>
-      <c r="F19">
-        <v>0.1</v>
-      </c>
-      <c r="G19">
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PAPA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZANAHORIA / Zanahoria bogotana</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>0.0414945380033123</v>
-      </c>
-      <c r="C20">
-        <v>0.1</v>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
       </c>
       <c r="D20">
         <v>0.1</v>
@@ -833,16 +762,340 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZANAHORIA / Zanahoria larga vida</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>0.05801157099078887</v>
-      </c>
-      <c r="I21">
-        <v>0.1</v>
-      </c>
-      <c r="J21">
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PLÁTANO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>0.03020415689372547</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>YUCA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="D37">
         <v>0.1</v>
       </c>
     </row>
